--- a/raw/1952election.xlsx
+++ b/raw/1952election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC8A1D5-C3E6-7D48-B4A8-8E4E41D7C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8194D3-6131-A64B-9913-4F9B29832845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16520" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6454" uniqueCount="1941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6447" uniqueCount="1941">
   <si>
     <t>State</t>
   </si>
@@ -6668,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1063" zoomScale="207" workbookViewId="0">
-      <selection activeCell="F1072" sqref="F1072"/>
+    <sheetView tabSelected="1" topLeftCell="C309" zoomScale="207" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13826,8 +13826,8 @@
       <c r="C313" t="s">
         <v>7</v>
       </c>
-      <c r="D313" t="s">
-        <v>17</v>
+      <c r="D313">
+        <v>5</v>
       </c>
       <c r="E313" t="s">
         <v>1631</v>
@@ -13849,8 +13849,8 @@
       <c r="C314" t="s">
         <v>7</v>
       </c>
-      <c r="D314" t="s">
-        <v>17</v>
+      <c r="D314">
+        <v>5</v>
       </c>
       <c r="E314" t="s">
         <v>1632</v>
@@ -13872,8 +13872,8 @@
       <c r="C315" t="s">
         <v>7</v>
       </c>
-      <c r="D315" t="s">
-        <v>17</v>
+      <c r="D315">
+        <v>6</v>
       </c>
       <c r="E315" t="s">
         <v>1633</v>
@@ -13895,8 +13895,8 @@
       <c r="C316" t="s">
         <v>7</v>
       </c>
-      <c r="D316" t="s">
-        <v>17</v>
+      <c r="D316">
+        <v>6</v>
       </c>
       <c r="E316" t="s">
         <v>1634</v>
@@ -14010,8 +14010,8 @@
       <c r="C321" t="s">
         <v>1515</v>
       </c>
-      <c r="D321" t="s">
-        <v>8</v>
+      <c r="D321">
+        <v>2</v>
       </c>
       <c r="E321" t="s">
         <v>428</v>
@@ -14079,8 +14079,8 @@
       <c r="C324" t="s">
         <v>1515</v>
       </c>
-      <c r="D324" t="s">
-        <v>12</v>
+      <c r="D324">
+        <v>3</v>
       </c>
       <c r="E324" t="s">
         <v>1639</v>
@@ -33094,8 +33094,8 @@
       <c r="C1172" t="s">
         <v>7</v>
       </c>
-      <c r="D1172" t="s">
-        <v>33</v>
+      <c r="D1172">
+        <v>10</v>
       </c>
       <c r="E1172" t="s">
         <v>1396</v>
